--- a/H_FamilyList_FP/폴더구상.xlsx
+++ b/H_FamilyList_FP/폴더구상.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72642C7E-7E4C-4427-94FA-A773F9D98F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\H_FamilyList_FP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{00DB3969-3FEB-4F6F-82F0-318AA9C1D7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{811099EB-CFFC-41E3-A9F7-3B5B1623BF95}"/>
+    <workbookView xWindow="30" yWindow="2340" windowWidth="28770" windowHeight="12480" xr2:uid="{811099EB-CFFC-41E3-A9F7-3B5B1623BF95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D3619C-8610-464A-9784-C2765874262C}">
   <dimension ref="C8:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -551,4 +556,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{a11ee6e5-21a0-48c4-8af4-6cc1347f763e}" enabled="1" method="Privileged" siteId="{a27ddcc1-bea5-4183-aa29-fd96d7612a1d}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>